--- a/data/endring_i_trafikk_per_nasjonal_turistveg.xlsx
+++ b/data/endring_i_trafikk_per_nasjonal_turistveg.xlsx
@@ -451,8 +451,11 @@
       <c r="C4">
         <v>3.891895757601582</v>
       </c>
+      <c r="D4">
+        <v>-9.415891900310747</v>
+      </c>
       <c r="F4">
-        <v>3.891895757601582</v>
+        <v>-4.692048848727737</v>
       </c>
     </row>
     <row r="5">
@@ -517,8 +520,11 @@
       <c r="C7">
         <v>-0.1151252672550895</v>
       </c>
+      <c r="D7">
+        <v>-3.418429370289322</v>
+      </c>
       <c r="F7">
-        <v>-0.1151252672550895</v>
+        <v>-1.865690872545478</v>
       </c>
     </row>
     <row r="8">
@@ -583,8 +589,11 @@
       <c r="C10">
         <v>2.912358507593527</v>
       </c>
+      <c r="D10">
+        <v>9.41802214863603</v>
+      </c>
       <c r="F10">
-        <v>2.912358507593527</v>
+        <v>7.336709946711095</v>
       </c>
     </row>
     <row r="11">
@@ -649,8 +658,11 @@
       <c r="C13">
         <v>-3.637253302886967</v>
       </c>
+      <c r="D13">
+        <v>-4.33603770830292</v>
+      </c>
       <c r="F13">
-        <v>-3.637253302886967</v>
+        <v>-4.142297256557126</v>
       </c>
     </row>
     <row r="14">
@@ -715,8 +727,11 @@
       <c r="C16">
         <v>-1.115698505319618</v>
       </c>
+      <c r="D16">
+        <v>5.014648734185578</v>
+      </c>
       <c r="F16">
-        <v>-1.115698505319618</v>
+        <v>1.694846484587909</v>
       </c>
     </row>
     <row r="17">
@@ -781,8 +796,11 @@
       <c r="C19">
         <v>-4.182204895882114</v>
       </c>
+      <c r="D19">
+        <v>-4.753271469797992</v>
+      </c>
       <c r="F19">
-        <v>-4.182204895882114</v>
+        <v>-4.479839910014216</v>
       </c>
     </row>
     <row r="20">
@@ -841,8 +859,11 @@
       <c r="C22">
         <v>-4.049353547286216</v>
       </c>
+      <c r="D22">
+        <v>-5.894786284640674</v>
+      </c>
       <c r="F22">
-        <v>-4.049353547286216</v>
+        <v>-5.441804269029404</v>
       </c>
     </row>
     <row r="23">
@@ -952,8 +973,11 @@
       <c r="C27">
         <v>-12.65930331350892</v>
       </c>
+      <c r="D27">
+        <v>-9.380507866048692</v>
+      </c>
       <c r="F27">
-        <v>-12.65930331350892</v>
+        <v>-10.29051122429731</v>
       </c>
     </row>
     <row r="28">
@@ -1018,8 +1042,11 @@
       <c r="C30">
         <v>-3.254031082038245</v>
       </c>
+      <c r="D30">
+        <v>1.626085596918392</v>
+      </c>
       <c r="F30">
-        <v>-3.254031082038245</v>
+        <v>0.02703141787978591</v>
       </c>
     </row>
     <row r="31">
@@ -1084,8 +1111,11 @@
       <c r="C33">
         <v>-0.6196724173042845</v>
       </c>
+      <c r="D33">
+        <v>-4.530292988806273</v>
+      </c>
       <c r="F33">
-        <v>-0.6196724173042845</v>
+        <v>-3.225595108102208</v>
       </c>
     </row>
     <row r="34">
@@ -1150,8 +1180,11 @@
       <c r="C36">
         <v>5.836329033622323</v>
       </c>
+      <c r="D36">
+        <v>-16.48943598747082</v>
+      </c>
       <c r="F36">
-        <v>5.836329033622323</v>
+        <v>-9.333315258648733</v>
       </c>
     </row>
     <row r="37">
@@ -1216,8 +1249,11 @@
       <c r="C39">
         <v>-7.342438290940989</v>
       </c>
+      <c r="D39">
+        <v>-3.97098129056892</v>
+      </c>
       <c r="F39">
-        <v>-7.342438290940989</v>
+        <v>-5.428834588503007</v>
       </c>
     </row>
     <row r="40">
@@ -1282,8 +1318,11 @@
       <c r="C42">
         <v>2.570574718117857</v>
       </c>
+      <c r="D42">
+        <v>-1.543337906974274</v>
+      </c>
       <c r="F42">
-        <v>2.570574718117857</v>
+        <v>0.3977394020426184</v>
       </c>
     </row>
     <row r="43">
@@ -1348,8 +1387,11 @@
       <c r="C45">
         <v>7.316505598598289</v>
       </c>
+      <c r="D45">
+        <v>-2.407711114912114</v>
+      </c>
       <c r="F45">
-        <v>7.316505598598289</v>
+        <v>1.71187000922044</v>
       </c>
     </row>
     <row r="46">
@@ -1456,8 +1498,11 @@
       <c r="C50">
         <v>2.479584223642206</v>
       </c>
+      <c r="D50">
+        <v>4.80140433762617</v>
+      </c>
       <c r="F50">
-        <v>2.479584223642206</v>
+        <v>3.836053223827274</v>
       </c>
     </row>
     <row r="51">
@@ -1522,8 +1567,11 @@
       <c r="C53">
         <v>-0.6392655605154562</v>
       </c>
+      <c r="D53">
+        <v>-2.410989747140357</v>
+      </c>
       <c r="F53">
-        <v>-0.6392655605154562</v>
+        <v>-1.576987971664856</v>
       </c>
     </row>
   </sheetData>

--- a/data/endring_i_trafikk_per_nasjonal_turistveg.xlsx
+++ b/data/endring_i_trafikk_per_nasjonal_turistveg.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,8 +454,11 @@
       <c r="D4">
         <v>-9.415891900310747</v>
       </c>
+      <c r="E4">
+        <v>10.58476626004612</v>
+      </c>
       <c r="F4">
-        <v>-4.692048848727737</v>
+        <v>-0.3232613374311133</v>
       </c>
     </row>
     <row r="5">
@@ -592,8 +595,11 @@
       <c r="D10">
         <v>9.41802214863603</v>
       </c>
+      <c r="E10">
+        <v>9.162529944926035</v>
+      </c>
       <c r="F10">
-        <v>7.336709946711095</v>
+        <v>7.946142749192831</v>
       </c>
     </row>
     <row r="11">
@@ -661,8 +667,11 @@
       <c r="D13">
         <v>-4.33603770830292</v>
       </c>
+      <c r="E13">
+        <v>-0.7067611247885575</v>
+      </c>
       <c r="F13">
-        <v>-4.142297256557126</v>
+        <v>-3.076059442067891</v>
       </c>
     </row>
     <row r="14">
@@ -730,8 +739,11 @@
       <c r="D16">
         <v>5.014648734185578</v>
       </c>
+      <c r="E16">
+        <v>1.592301752411784</v>
+      </c>
       <c r="F16">
-        <v>1.694846484587909</v>
+        <v>1.659628457294216</v>
       </c>
     </row>
     <row r="17">
@@ -797,10 +809,13 @@
         <v>-4.182204895882114</v>
       </c>
       <c r="D19">
-        <v>-4.753271469797992</v>
+        <v>-4.496055981500746</v>
+      </c>
+      <c r="E19">
+        <v>-1.558588736909139</v>
       </c>
       <c r="F19">
-        <v>-4.479839910014216</v>
+        <v>-3.341230790028749</v>
       </c>
     </row>
     <row r="20">
@@ -862,8 +877,11 @@
       <c r="D22">
         <v>-5.894786284640674</v>
       </c>
+      <c r="E22">
+        <v>18.02375569213133</v>
+      </c>
       <c r="F22">
-        <v>-5.441804269029404</v>
+        <v>2.441216115021727</v>
       </c>
     </row>
     <row r="23">
@@ -976,8 +994,11 @@
       <c r="D27">
         <v>-9.380507866048692</v>
       </c>
+      <c r="E27">
+        <v>23.35268009559577</v>
+      </c>
       <c r="F27">
-        <v>-10.29051122429731</v>
+        <v>-0.4334633723450332</v>
       </c>
     </row>
     <row r="28">
@@ -1045,8 +1066,11 @@
       <c r="D30">
         <v>1.626085596918392</v>
       </c>
+      <c r="E30">
+        <v>11.19370704891876</v>
+      </c>
       <c r="F30">
-        <v>0.02703141787978591</v>
+        <v>3.631202788538879</v>
       </c>
     </row>
     <row r="31">
@@ -1114,8 +1138,11 @@
       <c r="D33">
         <v>-4.530292988806273</v>
       </c>
+      <c r="E33">
+        <v>7.901660242726538</v>
+      </c>
       <c r="F33">
-        <v>-3.225595108102208</v>
+        <v>0.8017080810254651</v>
       </c>
     </row>
     <row r="34">
@@ -1183,8 +1210,11 @@
       <c r="D36">
         <v>-16.48943598747082</v>
       </c>
+      <c r="E36">
+        <v>5.311869998167262</v>
+      </c>
       <c r="F36">
-        <v>-9.333315258648733</v>
+        <v>-4.831652676844501</v>
       </c>
     </row>
     <row r="37">
@@ -1252,8 +1282,11 @@
       <c r="D39">
         <v>-3.97098129056892</v>
       </c>
+      <c r="E39">
+        <v>-0.1375380685725514</v>
+      </c>
       <c r="F39">
-        <v>-5.428834588503007</v>
+        <v>-3.547981561670621</v>
       </c>
     </row>
     <row r="40">
@@ -1319,10 +1352,13 @@
         <v>2.570574718117857</v>
       </c>
       <c r="D42">
-        <v>-1.543337906974274</v>
+        <v>-3.388610575782147</v>
+      </c>
+      <c r="E42">
+        <v>-1.236577929698046</v>
       </c>
       <c r="F42">
-        <v>0.3977394020426184</v>
+        <v>-0.8129883997476051</v>
       </c>
     </row>
     <row r="43">
@@ -1390,8 +1426,11 @@
       <c r="D45">
         <v>-2.407711114912114</v>
       </c>
+      <c r="E45">
+        <v>8.609356710101501</v>
+      </c>
       <c r="F45">
-        <v>1.71187000922044</v>
+        <v>3.855162600326167</v>
       </c>
     </row>
     <row r="46">
@@ -1439,25 +1478,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hardanger</t>
+          <t>Hardangervidda</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
-        </is>
-      </c>
-      <c r="C48">
-        <v>3.346392892549388</v>
-      </c>
-      <c r="D48">
-        <v>1.031793956260341</v>
+          <t>2020 - 2021</t>
+        </is>
       </c>
       <c r="E48">
-        <v>4.637190201498864</v>
+        <v>10.59250490034351</v>
       </c>
       <c r="F48">
-        <v>2.91719641642767</v>
+        <v>10.59250490034351</v>
       </c>
     </row>
     <row r="49">
@@ -1468,20 +1501,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2018 - 2019</t>
         </is>
       </c>
       <c r="C49">
-        <v>-9.140000645610535</v>
+        <v>3.346392892549388</v>
       </c>
       <c r="D49">
-        <v>2.486352942587411</v>
+        <v>1.031793956260341</v>
       </c>
       <c r="E49">
-        <v>-4.317699555524513</v>
+        <v>4.637190201498864</v>
       </c>
       <c r="F49">
-        <v>-3.374789969088909</v>
+        <v>2.91719641642767</v>
       </c>
     </row>
     <row r="50">
@@ -1492,41 +1525,44 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2019 - 2020</t>
         </is>
       </c>
       <c r="C50">
-        <v>2.479584223642206</v>
+        <v>-9.140000645610535</v>
       </c>
       <c r="D50">
-        <v>4.80140433762617</v>
+        <v>2.486352942587411</v>
+      </c>
+      <c r="E50">
+        <v>-4.317699555524513</v>
       </c>
       <c r="F50">
-        <v>3.836053223827274</v>
+        <v>-3.374789969088909</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Helgelandskysten</t>
+          <t>Hardanger</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2020 - 2021</t>
         </is>
       </c>
       <c r="C51">
-        <v>-0.9901759990721626</v>
+        <v>2.479584223642206</v>
       </c>
       <c r="D51">
-        <v>0.2629334438147613</v>
+        <v>4.80140433762617</v>
       </c>
       <c r="E51">
-        <v>2.663333872781748</v>
+        <v>8.853273404695727</v>
       </c>
       <c r="F51">
-        <v>0.6082258700602639</v>
+        <v>5.425885015550613</v>
       </c>
     </row>
     <row r="52">
@@ -1537,20 +1573,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2018 - 2019</t>
         </is>
       </c>
       <c r="C52">
-        <v>6.016195926374057</v>
+        <v>-0.9901759990721626</v>
       </c>
       <c r="D52">
-        <v>8.457055123274593</v>
+        <v>0.2629334438147613</v>
       </c>
       <c r="E52">
-        <v>0.702359335546543</v>
+        <v>2.663333872781748</v>
       </c>
       <c r="F52">
-        <v>5.215546385931646</v>
+        <v>0.6082258700602639</v>
       </c>
     </row>
     <row r="53">
@@ -1561,17 +1597,44 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>2019 - 2020</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>6.016195926374057</v>
+      </c>
+      <c r="D53">
+        <v>8.457055123274593</v>
+      </c>
+      <c r="E53">
+        <v>0.702359335546543</v>
+      </c>
+      <c r="F53">
+        <v>5.215546385931646</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Helgelandskysten</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>2020 - 2021</t>
         </is>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>-0.6392655605154562</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>-2.410989747140357</v>
       </c>
-      <c r="F53">
-        <v>-1.576987971664856</v>
+      <c r="E54">
+        <v>2.615629437334466</v>
+      </c>
+      <c r="F54">
+        <v>-0.3171081511533003</v>
       </c>
     </row>
   </sheetData>

--- a/data/endring_i_trafikk_per_nasjonal_turistveg.xlsx
+++ b/data/endring_i_trafikk_per_nasjonal_turistveg.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="C2">
-        <v>3.420154138955112</v>
+        <v>4.930143282831678</v>
       </c>
       <c r="D2">
-        <v>4.786953097401225</v>
+        <v>4.654012191548462</v>
       </c>
       <c r="E2">
-        <v>4.970001225178811</v>
+        <v>4.84188874887308</v>
       </c>
       <c r="F2">
-        <v>4.444576784115362</v>
+        <v>4.794111026630676</v>
       </c>
     </row>
     <row r="3">
@@ -425,16 +425,16 @@
         </is>
       </c>
       <c r="C3">
-        <v>-14.5288501767513</v>
+        <v>-13.63851144258276</v>
       </c>
       <c r="D3">
-        <v>4.101568864573646</v>
+        <v>4.517282961275271</v>
       </c>
       <c r="E3">
-        <v>-13.71450540656803</v>
+        <v>-13.20008559811684</v>
       </c>
       <c r="F3">
-        <v>-6.83378160700544</v>
+        <v>-6.274925488424921</v>
       </c>
     </row>
     <row r="4">
@@ -449,40 +449,37 @@
         </is>
       </c>
       <c r="C4">
-        <v>3.891895757601582</v>
+        <v>3.923387214339136</v>
       </c>
       <c r="D4">
-        <v>-9.415891900310747</v>
+        <v>-9.254362632323677</v>
       </c>
       <c r="E4">
-        <v>10.58476626004612</v>
+        <v>10.22782209330433</v>
       </c>
       <c r="F4">
-        <v>-0.3232613374311133</v>
+        <v>-0.328625939942484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rondane</t>
+          <t>Lofoten</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2021 - 2022</t>
         </is>
       </c>
       <c r="C5">
-        <v>5.762411347517737</v>
+        <v>16.8809459218487</v>
       </c>
       <c r="D5">
-        <v>-6.161913254102402</v>
-      </c>
-      <c r="E5">
-        <v>-3.686150605581884</v>
+        <v>-2.764387738280227</v>
       </c>
       <c r="F5">
-        <v>-2.685232730238318</v>
+        <v>5.119604404996481</v>
       </c>
     </row>
     <row r="6">
@@ -493,20 +490,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2018 - 2019</t>
         </is>
       </c>
       <c r="C6">
-        <v>-7.333180929157457</v>
+        <v>5.762411347517737</v>
       </c>
       <c r="D6">
-        <v>17.45955220282745</v>
+        <v>-6.161913254102402</v>
       </c>
       <c r="E6">
-        <v>13.98445737493654</v>
+        <v>-3.686150605581884</v>
       </c>
       <c r="F6">
-        <v>10.29632664208657</v>
+        <v>-2.685232730238318</v>
       </c>
     </row>
     <row r="7">
@@ -517,65 +514,62 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2019 - 2020</t>
         </is>
       </c>
       <c r="C7">
-        <v>-0.1151252672550895</v>
+        <v>-7.333180929157457</v>
       </c>
       <c r="D7">
-        <v>-3.418429370289322</v>
+        <v>17.45955220282745</v>
+      </c>
+      <c r="E7">
+        <v>13.98445737493654</v>
       </c>
       <c r="F7">
-        <v>-1.865690872545478</v>
+        <v>10.29632664208657</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sognefjellet</t>
+          <t>Rondane</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2020 - 2021</t>
         </is>
       </c>
       <c r="C8">
-        <v>3.10676637283982</v>
+        <v>-0.1151252672550895</v>
       </c>
       <c r="D8">
-        <v>-6.432441205338857</v>
-      </c>
-      <c r="E8">
-        <v>-1.220934441128918</v>
+        <v>-3.418429370289322</v>
       </c>
       <c r="F8">
-        <v>-2.337704625951897</v>
+        <v>-1.865690872545478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sognefjellet</t>
+          <t>Rondane</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2021 - 2022</t>
         </is>
       </c>
       <c r="C9">
-        <v>-18.32381364879132</v>
+        <v>12.12271017000357</v>
       </c>
       <c r="D9">
-        <v>-1.346195318591259</v>
-      </c>
-      <c r="E9">
-        <v>-1.091089705487203</v>
+        <v>-9.389789547880378</v>
       </c>
       <c r="F9">
-        <v>-5.201146074003093</v>
+        <v>0.8984041505220919</v>
       </c>
     </row>
     <row r="10">
@@ -586,98 +580,95 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2018 - 2019</t>
         </is>
       </c>
       <c r="C10">
-        <v>2.912358507593527</v>
+        <v>3.10676637283982</v>
       </c>
       <c r="D10">
-        <v>9.41802214863603</v>
+        <v>-6.432441205338857</v>
       </c>
       <c r="E10">
-        <v>9.162529944926035</v>
+        <v>-1.220934441128918</v>
       </c>
       <c r="F10">
-        <v>7.946142749192831</v>
+        <v>-2.337704625951897</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Valdresflye</t>
+          <t>Sognefjellet</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2019 - 2020</t>
         </is>
       </c>
       <c r="C11">
-        <v>10.65468906441205</v>
+        <v>-18.32381364879132</v>
       </c>
       <c r="D11">
-        <v>-2.877321793250998</v>
+        <v>-1.346195318591259</v>
       </c>
       <c r="E11">
-        <v>-1.404636046098962</v>
+        <v>-1.091089705487203</v>
       </c>
       <c r="F11">
-        <v>0.414539145420556</v>
+        <v>-5.201146074003093</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Valdresflye</t>
+          <t>Sognefjellet</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2020 - 2021</t>
         </is>
       </c>
       <c r="C12">
-        <v>-7.4371025711916</v>
+        <v>2.912358507593527</v>
       </c>
       <c r="D12">
-        <v>19.66907393268833</v>
+        <v>9.41802214863603</v>
       </c>
       <c r="E12">
-        <v>13.11736288718386</v>
+        <v>9.162529944926035</v>
       </c>
       <c r="F12">
-        <v>11.41074627904146</v>
+        <v>7.94614274919283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Valdresflye</t>
+          <t>Sognefjellet</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2021 - 2022</t>
         </is>
       </c>
       <c r="C13">
-        <v>-3.637253302886967</v>
+        <v>23.2047038764355</v>
       </c>
       <c r="D13">
-        <v>-4.33603770830292</v>
-      </c>
-      <c r="E13">
-        <v>-0.7067611247885575</v>
+        <v>-12.29986035981074</v>
       </c>
       <c r="F13">
-        <v>-3.076059442067891</v>
+        <v>0.1601506472022063</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jæren</t>
+          <t>Valdresflye</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -686,22 +677,22 @@
         </is>
       </c>
       <c r="C14">
-        <v>-5.352415205554728</v>
+        <v>10.65468906441205</v>
       </c>
       <c r="D14">
-        <v>-2.432662888097503</v>
+        <v>-2.877321793250998</v>
       </c>
       <c r="E14">
-        <v>3.40405178271288</v>
+        <v>-1.404636046098962</v>
       </c>
       <c r="F14">
-        <v>-1.548213729017223</v>
+        <v>0.414539145420556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jæren</t>
+          <t>Valdresflye</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -710,22 +701,22 @@
         </is>
       </c>
       <c r="C15">
-        <v>10.76299428605256</v>
+        <v>-7.4371025711916</v>
       </c>
       <c r="D15">
-        <v>7.307471525284437</v>
+        <v>19.66907393268833</v>
       </c>
       <c r="E15">
-        <v>5.996805324459231</v>
+        <v>13.11736288718386</v>
       </c>
       <c r="F15">
-        <v>8.046053128611309</v>
+        <v>11.41074627904146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jæren</t>
+          <t>Valdresflye</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -734,565 +725,547 @@
         </is>
       </c>
       <c r="C16">
-        <v>-1.115698505319618</v>
+        <v>-3.637253302886967</v>
       </c>
       <c r="D16">
-        <v>5.014648734185578</v>
+        <v>-4.33603770830292</v>
       </c>
       <c r="E16">
-        <v>1.592301752411784</v>
+        <v>-0.7067611247885575</v>
       </c>
       <c r="F16">
-        <v>1.659628457294216</v>
+        <v>-3.076059442067891</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ryfylke</t>
+          <t>Valdresflye</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2021 - 2022</t>
         </is>
       </c>
       <c r="C17">
-        <v>-2.734300635435161</v>
+        <v>2.754761904761915</v>
       </c>
       <c r="D17">
-        <v>-1.425780433012069</v>
-      </c>
-      <c r="E17">
-        <v>-0.5934852183837158</v>
+        <v>-16.15234992232949</v>
       </c>
       <c r="F17">
-        <v>-1.583337385799732</v>
+        <v>-11.0070075518277</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ryfylke</t>
+          <t>Jæren</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2018 - 2019</t>
         </is>
       </c>
       <c r="C18">
-        <v>10.9608436612217</v>
+        <v>-5.352415205554728</v>
       </c>
       <c r="D18">
-        <v>14.35947741672385</v>
+        <v>-2.432662888097503</v>
       </c>
       <c r="E18">
-        <v>11.17252398566495</v>
+        <v>3.40405178271288</v>
       </c>
       <c r="F18">
-        <v>12.18707054645185</v>
+        <v>-1.548213729017223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ryfylke</t>
+          <t>Jæren</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2019 - 2020</t>
         </is>
       </c>
       <c r="C19">
-        <v>-4.182204895882114</v>
+        <v>10.76299428605256</v>
       </c>
       <c r="D19">
-        <v>-4.496055981500746</v>
+        <v>7.307471525284437</v>
       </c>
       <c r="E19">
-        <v>-1.558588736909139</v>
+        <v>5.996805324459231</v>
       </c>
       <c r="F19">
-        <v>-3.341230790028749</v>
+        <v>8.046053128611309</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aurlandsfjellet</t>
+          <t>Jæren</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2020 - 2021</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.1997752528405505</v>
+        <v>-1.115698505319618</v>
+      </c>
+      <c r="D20">
+        <v>5.014648734185578</v>
+      </c>
+      <c r="E20">
+        <v>1.592301752411784</v>
       </c>
       <c r="F20">
-        <v>-0.1997752528405505</v>
+        <v>1.659628457294215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aurlandsfjellet</t>
+          <t>Jæren</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2021 - 2022</t>
         </is>
       </c>
       <c r="C21">
-        <v>-50.09945544070173</v>
+        <v>-0.8263245496457516</v>
       </c>
       <c r="D21">
-        <v>1.691048997840561</v>
-      </c>
-      <c r="E21">
-        <v>-24.37218287186092</v>
+        <v>-10.57606841260282</v>
       </c>
       <c r="F21">
-        <v>-23.62950819672132</v>
+        <v>-5.447940157044851</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aurlandsfjellet</t>
+          <t>Ryfylke</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2018 - 2019</t>
         </is>
       </c>
       <c r="C22">
-        <v>-4.049353547286216</v>
+        <v>-2.734300635435161</v>
       </c>
       <c r="D22">
-        <v>-5.894786284640674</v>
+        <v>-1.425780433012069</v>
       </c>
       <c r="E22">
-        <v>18.02375569213133</v>
+        <v>-0.5934852183837158</v>
       </c>
       <c r="F22">
-        <v>2.441216115021727</v>
+        <v>-1.583337385799732</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gaularfjellet</t>
+          <t>Ryfylke</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2019 - 2020</t>
         </is>
       </c>
       <c r="C23">
-        <v>-9.486797274275983</v>
+        <v>10.9608436612217</v>
       </c>
       <c r="D23">
-        <v>-4.50417987892765</v>
+        <v>14.35947741672385</v>
       </c>
       <c r="E23">
-        <v>6.118279569892482</v>
+        <v>11.17252398566495</v>
       </c>
       <c r="F23">
-        <v>-2.90776222058462</v>
+        <v>12.18707054645185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gaularfjellet</t>
+          <t>Ryfylke</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2020 - 2021</t>
         </is>
       </c>
       <c r="C24">
-        <v>-48.31714479331376</v>
+        <v>-4.182204895882114</v>
       </c>
       <c r="D24">
-        <v>-33.37329536939907</v>
+        <v>-4.496055981500746</v>
+      </c>
+      <c r="E24">
+        <v>-2.264730897208256</v>
       </c>
       <c r="F24">
-        <v>-39.33333333333333</v>
+        <v>-3.61162150955866</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gamle Strynefjellsvegen</t>
+          <t>Ryfylke</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2021 - 2022</t>
         </is>
       </c>
       <c r="C25">
-        <v>7.029834521077416</v>
+        <v>5.155990208172478</v>
       </c>
       <c r="D25">
-        <v>-2.624198717948723</v>
-      </c>
-      <c r="E25">
-        <v>-0.450054884742046</v>
+        <v>-1.229454741945968</v>
       </c>
       <c r="F25">
-        <v>0.4572841031978969</v>
+        <v>1.999427901519235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Gamle Strynefjellsvegen</t>
+          <t>Aurlandsfjellet</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2018 - 2019</t>
         </is>
       </c>
       <c r="C26">
-        <v>-23.34950908475342</v>
-      </c>
-      <c r="D26">
-        <v>5.020632737276487</v>
-      </c>
-      <c r="E26">
-        <v>-2.593947455936152</v>
+        <v>-0.1997752528405505</v>
       </c>
       <c r="F26">
-        <v>-4.851643945469131</v>
+        <v>-0.1997752528405505</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gamle Strynefjellsvegen</t>
+          <t>Aurlandsfjellet</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2019 - 2020</t>
         </is>
       </c>
       <c r="C27">
-        <v>-12.65930331350892</v>
+        <v>-50.09945544070173</v>
       </c>
       <c r="D27">
-        <v>-9.380507866048692</v>
+        <v>1.691048997840561</v>
       </c>
       <c r="E27">
-        <v>23.35268009559577</v>
+        <v>-24.37218287186091</v>
       </c>
       <c r="F27">
-        <v>-0.4334633723450332</v>
+        <v>-23.62950819672132</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Geiranger - Trollstigen</t>
+          <t>Aurlandsfjellet</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2020 - 2021</t>
         </is>
       </c>
       <c r="C28">
-        <v>3.407678094282995</v>
+        <v>-4.049353547286216</v>
       </c>
       <c r="D28">
-        <v>-2.300722262848076</v>
+        <v>-5.894786284640674</v>
       </c>
       <c r="E28">
-        <v>6.580332155043434</v>
+        <v>18.02375569213133</v>
       </c>
       <c r="F28">
-        <v>1.723990852263158</v>
+        <v>2.441216115021727</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Geiranger - Trollstigen</t>
+          <t>Aurlandsfjellet</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2021 - 2022</t>
         </is>
       </c>
       <c r="C29">
-        <v>-31.82282955155111</v>
+        <v>133.954857703631</v>
       </c>
       <c r="D29">
-        <v>-1.027903227780491</v>
-      </c>
-      <c r="E29">
-        <v>-15.63685510097069</v>
+        <v>24.22089342244109</v>
       </c>
       <c r="F29">
-        <v>-13.14529991088928</v>
+        <v>53.17452097358881</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Geiranger - Trollstigen</t>
+          <t>Gaularfjellet</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2018 - 2019</t>
         </is>
       </c>
       <c r="C30">
-        <v>-3.254031082038245</v>
+        <v>-9.486797274275983</v>
       </c>
       <c r="D30">
-        <v>1.626085596918392</v>
+        <v>-4.504179878927649</v>
       </c>
       <c r="E30">
-        <v>11.19370704891876</v>
+        <v>6.118279569892482</v>
       </c>
       <c r="F30">
-        <v>3.631202788538879</v>
+        <v>-2.90776222058462</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Atlanterhavsvegen</t>
+          <t>Gaularfjellet</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2019 - 2020</t>
         </is>
       </c>
       <c r="C31">
-        <v>5.924766181863128</v>
+        <v>-48.31714479331376</v>
       </c>
       <c r="D31">
-        <v>1.989613372624999</v>
-      </c>
-      <c r="E31">
-        <v>5.060512110290993</v>
+        <v>-33.37329536939907</v>
       </c>
       <c r="F31">
-        <v>4.122287483718767</v>
+        <v>-39.33333333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Atlanterhavsvegen</t>
+          <t>Gamle Strynefjellsvegen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2018 - 2019</t>
         </is>
       </c>
       <c r="C32">
-        <v>-1.123304615473131</v>
+        <v>7.029834521077416</v>
       </c>
       <c r="D32">
-        <v>17.70182462447483</v>
+        <v>-2.624198717948723</v>
       </c>
       <c r="E32">
-        <v>3.978512823710734</v>
+        <v>-0.450054884742046</v>
       </c>
       <c r="F32">
-        <v>8.141908837596311</v>
+        <v>0.4572841031978969</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Atlanterhavsvegen</t>
+          <t>Gamle Strynefjellsvegen</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2019 - 2020</t>
         </is>
       </c>
       <c r="C33">
-        <v>-0.6196724173042845</v>
+        <v>-23.34950908475342</v>
       </c>
       <c r="D33">
-        <v>-4.530292988806273</v>
+        <v>5.020632737276487</v>
       </c>
       <c r="E33">
-        <v>7.901660242726538</v>
+        <v>-2.593947455936152</v>
       </c>
       <c r="F33">
-        <v>0.8017080810254651</v>
+        <v>-4.851643945469131</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Senja</t>
+          <t>Gamle Strynefjellsvegen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2020 - 2021</t>
         </is>
       </c>
       <c r="C34">
-        <v>14.99619192688499</v>
+        <v>-12.65930331350892</v>
       </c>
       <c r="D34">
-        <v>4.986992588229522</v>
+        <v>-9.380507866048692</v>
       </c>
       <c r="E34">
-        <v>9.33747790577193</v>
+        <v>23.35268009559577</v>
       </c>
       <c r="F34">
-        <v>9.050290522941285</v>
+        <v>-0.4334633723450332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Senja</t>
+          <t>Gamle Strynefjellsvegen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2021 - 2022</t>
         </is>
       </c>
       <c r="C35">
-        <v>-22.40661157024794</v>
+        <v>107.5486381322957</v>
       </c>
       <c r="D35">
-        <v>16.05571677307023</v>
-      </c>
-      <c r="E35">
-        <v>-6.608646026537313</v>
+        <v>2.291008330939381</v>
       </c>
       <c r="F35">
-        <v>1.298729154378253</v>
+        <v>30.67037347880823</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Senja</t>
+          <t>Geiranger - Trollstigen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2018 - 2019</t>
         </is>
       </c>
       <c r="C36">
-        <v>5.836329033622323</v>
+        <v>3.407678094282995</v>
       </c>
       <c r="D36">
-        <v>-16.48943598747082</v>
+        <v>-2.300722262848076</v>
       </c>
       <c r="E36">
-        <v>5.311869998167262</v>
+        <v>6.580332155043433</v>
       </c>
       <c r="F36">
-        <v>-4.831652676844501</v>
+        <v>1.723990852263158</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Havøysund</t>
+          <t>Geiranger - Trollstigen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2019 - 2020</t>
         </is>
       </c>
       <c r="C37">
-        <v>8.442776735459656</v>
+        <v>-31.82282955155111</v>
       </c>
       <c r="D37">
-        <v>1.098347440548175</v>
+        <v>-1.027903227780491</v>
       </c>
       <c r="E37">
-        <v>0.6528046421663492</v>
+        <v>-15.63685510097069</v>
       </c>
       <c r="F37">
-        <v>3.090653987060565</v>
+        <v>-13.14529991088927</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Havøysund</t>
+          <t>Geiranger - Trollstigen</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2020 - 2021</t>
         </is>
       </c>
       <c r="C38">
-        <v>-1.602761681666876</v>
+        <v>-3.254031082038245</v>
       </c>
       <c r="D38">
-        <v>4.116415827768361</v>
+        <v>1.626085596918392</v>
       </c>
       <c r="E38">
-        <v>22.25558491472497</v>
+        <v>11.19370704891876</v>
       </c>
       <c r="F38">
-        <v>8.069512655836796</v>
+        <v>3.631202788538879</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Havøysund</t>
+          <t>Geiranger - Trollstigen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2021 - 2022</t>
         </is>
       </c>
       <c r="C39">
-        <v>-7.342438290940989</v>
+        <v>58.28266475418049</v>
       </c>
       <c r="D39">
-        <v>-3.97098129056892</v>
-      </c>
-      <c r="E39">
-        <v>-0.1375380685725514</v>
+        <v>-10.90423135829904</v>
       </c>
       <c r="F39">
-        <v>-3.547981561670621</v>
+        <v>5.05075932249559</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Varanger</t>
+          <t>Atlanterhavsvegen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1301,22 +1274,22 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.9035470405987622</v>
+        <v>5.924766181863128</v>
       </c>
       <c r="D40">
-        <v>26.48822463768117</v>
+        <v>1.989613372624999</v>
       </c>
       <c r="E40">
-        <v>29.66996337999872</v>
+        <v>5.060512110290993</v>
       </c>
       <c r="F40">
-        <v>18.1096636422936</v>
+        <v>4.122287483718767</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Varanger</t>
+          <t>Atlanterhavsvegen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1325,22 +1298,22 @@
         </is>
       </c>
       <c r="C41">
-        <v>1.765418565741639</v>
+        <v>-1.123304615473131</v>
       </c>
       <c r="D41">
-        <v>8.104678107454255</v>
+        <v>17.70182462447483</v>
       </c>
       <c r="E41">
-        <v>-2.137306603049705</v>
+        <v>3.978512823710734</v>
       </c>
       <c r="F41">
-        <v>2.571661375498691</v>
+        <v>8.141908837596311</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Varanger</t>
+          <t>Atlanterhavsvegen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1349,226 +1322,229 @@
         </is>
       </c>
       <c r="C42">
-        <v>2.570574718117857</v>
+        <v>-0.6196724173042845</v>
       </c>
       <c r="D42">
-        <v>-3.388610575782147</v>
+        <v>-4.530292988806273</v>
       </c>
       <c r="E42">
-        <v>-1.236577929698046</v>
+        <v>7.901660242726538</v>
       </c>
       <c r="F42">
-        <v>-0.8129883997476051</v>
+        <v>0.8017080810254651</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Andøya</t>
+          <t>Atlanterhavsvegen</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2021 - 2022</t>
         </is>
       </c>
       <c r="C43">
-        <v>1.68776371308017</v>
+        <v>16.49509927117365</v>
       </c>
       <c r="D43">
-        <v>2.966181410974245</v>
-      </c>
-      <c r="E43">
-        <v>-10.66385112841494</v>
+        <v>-14.59669707787015</v>
       </c>
       <c r="F43">
-        <v>-1.981514247731708</v>
+        <v>-2.044800136360592</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Andøya</t>
+          <t>Senja</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2018 - 2019</t>
         </is>
       </c>
       <c r="C44">
-        <v>-4.778500165954036</v>
+        <v>14.99619192688499</v>
       </c>
       <c r="D44">
-        <v>6.497529059650598</v>
+        <v>4.986992588229522</v>
       </c>
       <c r="E44">
-        <v>9.432506421164998</v>
+        <v>9.33747790577193</v>
       </c>
       <c r="F44">
-        <v>3.685136690140167</v>
+        <v>9.050290522941285</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Andøya</t>
+          <t>Senja</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2019 - 2020</t>
         </is>
       </c>
       <c r="C45">
-        <v>7.316505598598289</v>
+        <v>-22.40661157024794</v>
       </c>
       <c r="D45">
-        <v>-2.407711114912114</v>
+        <v>16.05571677307023</v>
       </c>
       <c r="E45">
-        <v>8.609356710101501</v>
+        <v>-6.608646026537313</v>
       </c>
       <c r="F45">
-        <v>3.855162600326167</v>
+        <v>1.298729154378253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Hardangervidda</t>
+          <t>Senja</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2020 - 2021</t>
         </is>
       </c>
       <c r="C46">
-        <v>12.68172500047018</v>
+        <v>5.836329033622323</v>
       </c>
       <c r="D46">
-        <v>-1.746990276277205</v>
+        <v>-16.48943598747082</v>
       </c>
       <c r="E46">
-        <v>0.6586941229135945</v>
+        <v>5.311869998167262</v>
       </c>
       <c r="F46">
-        <v>2.317675091481575</v>
+        <v>-4.831652676844501</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hardangervidda</t>
+          <t>Senja</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
-        </is>
-      </c>
-      <c r="E47">
-        <v>5.10828576727318</v>
+          <t>2021 - 2022</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>-18.1938061938062</v>
+      </c>
+      <c r="D47">
+        <v>-47.78833042271716</v>
       </c>
       <c r="F47">
-        <v>5.10828576727318</v>
+        <v>-36.70577320204711</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hardangervidda</t>
+          <t>Havøysund</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
-        </is>
+          <t>2018 - 2019</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>8.442776735459656</v>
+      </c>
+      <c r="D48">
+        <v>1.098347440548175</v>
       </c>
       <c r="E48">
-        <v>10.59250490034351</v>
+        <v>0.6528046421663491</v>
       </c>
       <c r="F48">
-        <v>10.59250490034351</v>
+        <v>3.090653987060565</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hardanger</t>
+          <t>Havøysund</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2018 - 2019</t>
+          <t>2019 - 2020</t>
         </is>
       </c>
       <c r="C49">
-        <v>3.346392892549388</v>
+        <v>-1.602761681666875</v>
       </c>
       <c r="D49">
-        <v>1.031793956260341</v>
+        <v>4.11641582776836</v>
       </c>
       <c r="E49">
-        <v>4.637190201498864</v>
+        <v>22.25558491472497</v>
       </c>
       <c r="F49">
-        <v>2.91719641642767</v>
+        <v>8.069512655836796</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Hardanger</t>
+          <t>Havøysund</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2019 - 2020</t>
+          <t>2020 - 2021</t>
         </is>
       </c>
       <c r="C50">
-        <v>-9.140000645610535</v>
+        <v>-7.342438290940989</v>
       </c>
       <c r="D50">
-        <v>2.486352942587411</v>
+        <v>-3.97098129056892</v>
       </c>
       <c r="E50">
-        <v>-4.317699555524513</v>
+        <v>-0.1375380685725514</v>
       </c>
       <c r="F50">
-        <v>-3.374789969088909</v>
+        <v>-3.547981561670621</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Hardanger</t>
+          <t>Havøysund</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2020 - 2021</t>
+          <t>2021 - 2022</t>
         </is>
       </c>
       <c r="C51">
-        <v>2.479584223642206</v>
+        <v>8.816768086544968</v>
       </c>
       <c r="D51">
-        <v>4.80140433762617</v>
-      </c>
-      <c r="E51">
-        <v>8.853273404695727</v>
+        <v>-13.12127236580517</v>
       </c>
       <c r="F51">
-        <v>5.425885015550613</v>
+        <v>-3.826983672300199</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Helgelandskysten</t>
+          <t>Varanger</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1577,22 +1553,22 @@
         </is>
       </c>
       <c r="C52">
-        <v>-0.9901759990721626</v>
+        <v>-1.049379492103542</v>
       </c>
       <c r="D52">
-        <v>0.2629334438147613</v>
+        <v>-0.4688806790867361</v>
       </c>
       <c r="E52">
-        <v>2.663333872781748</v>
+        <v>0.657729243426397</v>
       </c>
       <c r="F52">
-        <v>0.6082258700602639</v>
+        <v>-0.4543571639156418</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Helgelandskysten</t>
+          <t>Varanger</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1601,40 +1577,421 @@
         </is>
       </c>
       <c r="C53">
-        <v>6.016195926374057</v>
+        <v>1.765418565741639</v>
       </c>
       <c r="D53">
-        <v>8.457055123274593</v>
+        <v>7.733951168973108</v>
       </c>
       <c r="E53">
-        <v>0.702359335546543</v>
+        <v>-2.298978557322096</v>
       </c>
       <c r="F53">
-        <v>5.215546385931646</v>
+        <v>2.460019785839318</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>Varanger</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2020 - 2021</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>2.570574718117857</v>
+      </c>
+      <c r="D54">
+        <v>-1.543337906974274</v>
+      </c>
+      <c r="E54">
+        <v>3.868933779584038</v>
+      </c>
+      <c r="F54">
+        <v>1.507551611596458</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Varanger</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2021 - 2022</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>-3.533157185478986</v>
+      </c>
+      <c r="D55">
+        <v>-11.78502302609624</v>
+      </c>
+      <c r="F55">
+        <v>-7.775448990504074</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Andøya</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2018 - 2019</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>1.68776371308017</v>
+      </c>
+      <c r="D56">
+        <v>2.966181410974245</v>
+      </c>
+      <c r="E56">
+        <v>-10.66385112841494</v>
+      </c>
+      <c r="F56">
+        <v>-1.981514247731708</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Andøya</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2019 - 2020</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>-4.778500165954036</v>
+      </c>
+      <c r="D57">
+        <v>6.497529059650597</v>
+      </c>
+      <c r="E57">
+        <v>9.432506421164998</v>
+      </c>
+      <c r="F57">
+        <v>3.685136690140167</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Andøya</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2020 - 2021</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>7.316505598598289</v>
+      </c>
+      <c r="D58">
+        <v>-2.407711114912114</v>
+      </c>
+      <c r="E58">
+        <v>8.609356710101501</v>
+      </c>
+      <c r="F58">
+        <v>3.855162600326167</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Andøya</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2021 - 2022</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>10.0394944203763</v>
+      </c>
+      <c r="D59">
+        <v>-10.22038922541565</v>
+      </c>
+      <c r="F59">
+        <v>-1.166218998249247</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hardangervidda</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2018 - 2019</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>12.68172500047018</v>
+      </c>
+      <c r="D60">
+        <v>-1.746990276277205</v>
+      </c>
+      <c r="E60">
+        <v>0.6586941229135945</v>
+      </c>
+      <c r="F60">
+        <v>2.317675091481575</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hardangervidda</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2019 - 2020</t>
+        </is>
+      </c>
+      <c r="E61">
+        <v>5.10828576727318</v>
+      </c>
+      <c r="F61">
+        <v>5.10828576727318</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hardangervidda</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2020 - 2021</t>
+        </is>
+      </c>
+      <c r="E62">
+        <v>10.59250490034351</v>
+      </c>
+      <c r="F62">
+        <v>10.59250490034351</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hardangervidda</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2021 - 2022</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>12.5260583526609</v>
+      </c>
+      <c r="D63">
+        <v>-6.146004033782937</v>
+      </c>
+      <c r="F63">
+        <v>-1.937171603338539</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hardanger</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2018 - 2019</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>3.346392892549388</v>
+      </c>
+      <c r="D64">
+        <v>1.031793956260341</v>
+      </c>
+      <c r="E64">
+        <v>4.637190201498864</v>
+      </c>
+      <c r="F64">
+        <v>2.91719641642767</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hardanger</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2019 - 2020</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>-9.140000645610534</v>
+      </c>
+      <c r="D65">
+        <v>2.486352942587411</v>
+      </c>
+      <c r="E65">
+        <v>-4.317699555524513</v>
+      </c>
+      <c r="F65">
+        <v>-3.374789969088909</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hardanger</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2020 - 2021</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>2.479584223642206</v>
+      </c>
+      <c r="D66">
+        <v>4.801404337626169</v>
+      </c>
+      <c r="E66">
+        <v>8.94500122543338</v>
+      </c>
+      <c r="F66">
+        <v>5.488008613008621</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Hardanger</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2021 - 2022</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>11.38808185546558</v>
+      </c>
+      <c r="D67">
+        <v>-8.405010301860871</v>
+      </c>
+      <c r="F67">
+        <v>0.2360149256023236</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>Helgelandskysten</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2018 - 2019</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>-0.9901759990721626</v>
+      </c>
+      <c r="D68">
+        <v>0.2629334438147612</v>
+      </c>
+      <c r="E68">
+        <v>2.663333872781748</v>
+      </c>
+      <c r="F68">
+        <v>0.6082258700602639</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Helgelandskysten</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2019 - 2020</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>6.016195926374057</v>
+      </c>
+      <c r="D69">
+        <v>8.457055123274593</v>
+      </c>
+      <c r="E69">
+        <v>0.702359335546543</v>
+      </c>
+      <c r="F69">
+        <v>5.215546385931646</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Helgelandskysten</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>2020 - 2021</t>
         </is>
       </c>
-      <c r="C54">
+      <c r="C70">
         <v>-0.6392655605154562</v>
       </c>
-      <c r="D54">
+      <c r="D70">
         <v>-2.410989747140357</v>
       </c>
-      <c r="E54">
+      <c r="E70">
         <v>2.615629437334466</v>
       </c>
-      <c r="F54">
+      <c r="F70">
         <v>-0.3171081511533003</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Helgelandskysten</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2021 - 2022</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>-3.74609614514031</v>
+      </c>
+      <c r="D71">
+        <v>-13.87736379264745</v>
+      </c>
+      <c r="F71">
+        <v>-9.07430760930218</v>
       </c>
     </row>
   </sheetData>
